--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-digits-top-by-best-speed.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-digits-top-by-best-speed.xlsx
@@ -59,7 +59,7 @@
     <t>bolbol</t>
   </si>
   <si>
-    <t>37 ч. 9 мин. 22 сек.</t>
+    <t>37 ч. 09 мин. 22 сек.</t>
   </si>
   <si>
     <t>3</t>
@@ -68,7 +68,7 @@
     <t>Evariste</t>
   </si>
   <si>
-    <t>216 ч. 8 мин. 54 сек.</t>
+    <t>216 ч. 08 мин. 54 сек.</t>
   </si>
   <si>
     <t>4</t>
@@ -122,7 +122,7 @@
     <t>tamapetyshko</t>
   </si>
   <si>
-    <t>1 ч. 12 мин. 2 сек.</t>
+    <t>1 ч. 12 мин. 02 сек.</t>
   </si>
   <si>
     <t>10</t>
@@ -140,7 +140,7 @@
     <t>EVjGeNiX</t>
   </si>
   <si>
-    <t>100 ч. 7 мин. 54 сек.</t>
+    <t>100 ч. 07 мин. 54 сек.</t>
   </si>
   <si>
     <t>12</t>
@@ -158,7 +158,7 @@
     <t>Радончег</t>
   </si>
   <si>
-    <t>22 ч. 21 мин. 5 сек.</t>
+    <t>22 ч. 21 мин. 05 сек.</t>
   </si>
   <si>
     <t>14–15</t>
@@ -167,7 +167,7 @@
     <t>sbox</t>
   </si>
   <si>
-    <t>19 ч. 28 мин. 3 сек.</t>
+    <t>19 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>Ivan92</t>
@@ -209,7 +209,7 @@
     <t>igormsu</t>
   </si>
   <si>
-    <t>36 ч. 6 мин. 34 сек.</t>
+    <t>36 ч. 06 мин. 34 сек.</t>
   </si>
   <si>
     <t>20–21</t>
@@ -269,7 +269,7 @@
     <t>Yada</t>
   </si>
   <si>
-    <t>7 ч. 3 мин. 41 сек.</t>
+    <t>7 ч. 03 мин. 41 сек.</t>
   </si>
   <si>
     <t>27</t>
@@ -278,7 +278,7 @@
     <t>udezich</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 43 сек.</t>
+    <t>6 ч. 07 мин. 43 сек.</t>
   </si>
   <si>
     <t>28–29</t>
@@ -287,13 +287,13 @@
     <t>Static</t>
   </si>
   <si>
-    <t>23 ч. 56 мин. 9 сек.</t>
+    <t>23 ч. 56 мин. 09 сек.</t>
   </si>
   <si>
     <t>GrozaPogromov</t>
   </si>
   <si>
-    <t>28 ч. 7 мин. 22 сек.</t>
+    <t>28 ч. 07 мин. 22 сек.</t>
   </si>
   <si>
     <t>30</t>
@@ -302,7 +302,7 @@
     <t>vitaha</t>
   </si>
   <si>
-    <t>72 ч. 55 мин. 6 сек.</t>
+    <t>72 ч. 55 мин. 06 сек.</t>
   </si>
   <si>
     <t>31</t>
@@ -353,13 +353,13 @@
     <t>SnowMen</t>
   </si>
   <si>
-    <t>1 ч. 23 мин. 7 сек.</t>
+    <t>1 ч. 23 мин. 07 сек.</t>
   </si>
   <si>
     <t>Валацуга</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 2 сек.</t>
+    <t>3 ч. 04 мин. 02 сек.</t>
   </si>
   <si>
     <t>38</t>
@@ -368,7 +368,7 @@
     <t>PROFI</t>
   </si>
   <si>
-    <t>20 ч. 34 мин. 0 сек.</t>
+    <t>20 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>39</t>
@@ -443,7 +443,7 @@
     <t>docomo68k</t>
   </si>
   <si>
-    <t>21 ч. 1 мин. 52 сек.</t>
+    <t>21 ч. 01 мин. 52 сек.</t>
   </si>
   <si>
     <t>48–49</t>
@@ -452,13 +452,13 @@
     <t>Solitaire</t>
   </si>
   <si>
-    <t>11 ч. 44 мин. 0 сек.</t>
+    <t>11 ч. 44 мин. 00 сек.</t>
   </si>
   <si>
     <t>Alsim</t>
   </si>
   <si>
-    <t>15 ч. 8 мин. 2 сек.</t>
+    <t>15 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>50</t>
@@ -476,7 +476,7 @@
     <t>Ваньсон</t>
   </si>
   <si>
-    <t>3 ч. 18 мин. 2 сек.</t>
+    <t>3 ч. 18 мин. 02 сек.</t>
   </si>
   <si>
     <t>Андруша</t>
@@ -491,7 +491,7 @@
     <t>llllllllllllll</t>
   </si>
   <si>
-    <t>27 ч. 47 мин. 4 сек.</t>
+    <t>27 ч. 47 мин. 04 сек.</t>
   </si>
   <si>
     <t>54–55</t>
@@ -506,7 +506,7 @@
     <t>Botin</t>
   </si>
   <si>
-    <t>36 ч. 42 мин. 2 сек.</t>
+    <t>36 ч. 42 мин. 02 сек.</t>
   </si>
   <si>
     <t>56</t>
@@ -524,7 +524,7 @@
     <t>АдамБожевич</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 6 сек.</t>
+    <t>1 ч. 36 мин. 06 сек.</t>
   </si>
   <si>
     <t>58–59</t>
@@ -533,7 +533,7 @@
     <t>ToNick</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 56 сек.</t>
+    <t>7 ч. 05 мин. 56 сек.</t>
   </si>
   <si>
     <t>Негодница</t>
@@ -557,7 +557,7 @@
     <t>AvtandiLine</t>
   </si>
   <si>
-    <t>5 ч. 59 мин. 3 сек.</t>
+    <t>5 ч. 59 мин. 03 сек.</t>
   </si>
   <si>
     <t>62</t>
@@ -566,7 +566,7 @@
     <t>WERT7</t>
   </si>
   <si>
-    <t>17 ч. 5 мин. 20 сек.</t>
+    <t>17 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>63</t>
@@ -599,7 +599,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>28 ч. 9 мин. 34 сек.</t>
+    <t>28 ч. 09 мин. 34 сек.</t>
   </si>
   <si>
     <t>67</t>
@@ -626,7 +626,7 @@
     <t>valula</t>
   </si>
   <si>
-    <t>226 ч. 43 мин. 4 сек.</t>
+    <t>226 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>70</t>
@@ -635,7 +635,7 @@
     <t>Oxanette</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 36 сек.</t>
+    <t>3 ч. 00 мин. 36 сек.</t>
   </si>
   <si>
     <t>71</t>
@@ -695,7 +695,7 @@
     <t>Faleron</t>
   </si>
   <si>
-    <t>3 ч. 42 мин. 9 сек.</t>
+    <t>3 ч. 42 мин. 09 сек.</t>
   </si>
   <si>
     <t>78</t>
@@ -728,13 +728,13 @@
     <t>МсМотя</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 43 сек.</t>
+    <t>3 ч. 07 мин. 43 сек.</t>
   </si>
   <si>
     <t>Razorage</t>
   </si>
   <si>
-    <t>5 ч. 42 мин. 8 сек.</t>
+    <t>5 ч. 42 мин. 08 сек.</t>
   </si>
   <si>
     <t>Ildus</t>
@@ -749,7 +749,7 @@
     <t>Radius</t>
   </si>
   <si>
-    <t>26 ч. 5 мин. 19 сек.</t>
+    <t>26 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>12061987</t>
@@ -764,13 +764,13 @@
     <t>HRUST</t>
   </si>
   <si>
-    <t>10 ч. 35 мин. 7 сек.</t>
+    <t>10 ч. 35 мин. 07 сек.</t>
   </si>
   <si>
     <t>AcidMan</t>
   </si>
   <si>
-    <t>11 ч. 2 мин. 39 сек.</t>
+    <t>11 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>88</t>
@@ -803,7 +803,7 @@
     <t>L_I_R_A</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 19 сек.</t>
+    <t>22 ч. 08 мин. 19 сек.</t>
   </si>
   <si>
     <t>92–94</t>
@@ -818,7 +818,7 @@
     <t>Erzhanov</t>
   </si>
   <si>
-    <t>35 ч. 22 мин. 5 сек.</t>
+    <t>35 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>asiegres</t>
@@ -833,13 +833,13 @@
     <t>Hitchhiker</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 9 сек.</t>
+    <t>2 ч. 02 мин. 09 сек.</t>
   </si>
   <si>
     <t>Nasten-a</t>
   </si>
   <si>
-    <t>4 ч. 31 мин. 3 сек.</t>
+    <t>4 ч. 31 мин. 03 сек.</t>
   </si>
   <si>
     <t>97–99</t>
@@ -854,7 +854,7 @@
     <t>RainbowMan</t>
   </si>
   <si>
-    <t>3 ч. 48 мин. 2 сек.</t>
+    <t>3 ч. 48 мин. 02 сек.</t>
   </si>
   <si>
     <t>Мегаладон</t>
@@ -932,7 +932,7 @@
     <t>valeryani</t>
   </si>
   <si>
-    <t>9 ч. 5 мин. 23 сек.</t>
+    <t>9 ч. 05 мин. 23 сек.</t>
   </si>
   <si>
     <t>109–110</t>
@@ -986,7 +986,7 @@
     <t>DVRazor</t>
   </si>
   <si>
-    <t>11 ч. 2 мин. 25 сек.</t>
+    <t>11 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>Squirr</t>
@@ -1028,7 +1028,7 @@
     <t>Florance</t>
   </si>
   <si>
-    <t>15 ч. 38 мин. 8 сек.</t>
+    <t>15 ч. 38 мин. 08 сек.</t>
   </si>
   <si>
     <t>122–126</t>
@@ -1037,7 +1037,7 @@
     <t>рыжий_ап</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 3 сек.</t>
+    <t>2 ч. 16 мин. 03 сек.</t>
   </si>
   <si>
     <t>rimskii</t>
@@ -1070,7 +1070,7 @@
     <t>Sev4ik</t>
   </si>
   <si>
-    <t>1 ч. 41 мин. 5 сек.</t>
+    <t>1 ч. 41 мин. 05 сек.</t>
   </si>
   <si>
     <t>128</t>
@@ -1079,7 +1079,7 @@
     <t>Supersonic</t>
   </si>
   <si>
-    <t>26 ч. 24 мин. 5 сек.</t>
+    <t>26 ч. 24 мин. 05 сек.</t>
   </si>
   <si>
     <t>129–133</t>
@@ -1130,7 +1130,7 @@
     <t>Ismail-06</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 30 сек.</t>
+    <t>5 ч. 00 мин. 30 сек.</t>
   </si>
   <si>
     <t>136–138</t>
@@ -1151,7 +1151,7 @@
     <t>s3erios</t>
   </si>
   <si>
-    <t>16 ч. 4 мин. 36 сек.</t>
+    <t>16 ч. 04 мин. 36 сек.</t>
   </si>
   <si>
     <t>139</t>
@@ -1184,7 +1184,7 @@
     <t>SilverNeko</t>
   </si>
   <si>
-    <t>2 ч. 38 мин. 7 сек.</t>
+    <t>2 ч. 38 мин. 07 сек.</t>
   </si>
   <si>
     <t>143–146</t>
@@ -1241,7 +1241,7 @@
     <t>Spetznaz</t>
   </si>
   <si>
-    <t>27 ч. 5 мин. 35 сек.</t>
+    <t>27 ч. 05 мин. 35 сек.</t>
   </si>
   <si>
     <t>151–153</t>
@@ -1250,7 +1250,7 @@
     <t>serg_omen</t>
   </si>
   <si>
-    <t>2 ч. 39 мин. 9 сек.</t>
+    <t>2 ч. 39 мин. 09 сек.</t>
   </si>
   <si>
     <t>оральныйДемон</t>
@@ -1280,7 +1280,7 @@
     <t>KamaZ</t>
   </si>
   <si>
-    <t>3 ч. 47 мин. 4 сек.</t>
+    <t>3 ч. 47 мин. 04 сек.</t>
   </si>
   <si>
     <t>156–158</t>
@@ -1295,7 +1295,7 @@
     <t>dubrav</t>
   </si>
   <si>
-    <t>19 ч. 2 мин. 17 сек.</t>
+    <t>19 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>Denis-F</t>
@@ -1334,7 +1334,7 @@
     <t>DAVA</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 15 сек.</t>
+    <t>5 ч. 02 мин. 15 сек.</t>
   </si>
   <si>
     <t>UPO</t>
@@ -1358,13 +1358,13 @@
     <t>exdark</t>
   </si>
   <si>
-    <t>11 ч. 5 мин. 23 сек.</t>
+    <t>11 ч. 05 мин. 23 сек.</t>
   </si>
   <si>
     <t>kpasten</t>
   </si>
   <si>
-    <t>9 ч. 59 мин. 7 сек.</t>
+    <t>9 ч. 59 мин. 07 сек.</t>
   </si>
   <si>
     <t>Nowhereman42nd</t>
@@ -1424,7 +1424,7 @@
     <t>Denzilman</t>
   </si>
   <si>
-    <t>23 ч. 47 мин. 8 сек.</t>
+    <t>23 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>175–177</t>
@@ -1433,7 +1433,7 @@
     <t>EkonomiSSSt</t>
   </si>
   <si>
-    <t>7 ч. 41 мин. 9 сек.</t>
+    <t>7 ч. 41 мин. 09 сек.</t>
   </si>
   <si>
     <t>Fenist</t>
@@ -1454,7 +1454,7 @@
     <t>tararamspb</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 25 сек.</t>
+    <t>5 ч. 00 мин. 25 сек.</t>
   </si>
   <si>
     <t>179–181</t>
@@ -1463,7 +1463,7 @@
     <t>Bimbula</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 47 сек.</t>
+    <t>2 ч. 05 мин. 47 сек.</t>
   </si>
   <si>
     <t>Gorusd</t>
@@ -1490,7 +1490,7 @@
     <t>speederman</t>
   </si>
   <si>
-    <t>8 ч. 54 мин. 0 сек.</t>
+    <t>8 ч. 54 мин. 00 сек.</t>
   </si>
   <si>
     <t>184</t>
@@ -1538,7 +1538,7 @@
     <t>Инж</t>
   </si>
   <si>
-    <t>5 ч. 21 мин. 2 сек.</t>
+    <t>5 ч. 21 мин. 02 сек.</t>
   </si>
   <si>
     <t>Хеопс</t>
@@ -1562,7 +1562,7 @@
     <t>Александр431</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 47 сек.</t>
+    <t>2 ч. 06 мин. 47 сек.</t>
   </si>
   <si>
     <t>HellBoy33</t>
@@ -1589,13 +1589,13 @@
     <t>Pisaka</t>
   </si>
   <si>
-    <t>9 ч. 49 мин. 5 сек.</t>
+    <t>9 ч. 49 мин. 05 сек.</t>
   </si>
   <si>
     <t>natik1977</t>
   </si>
   <si>
-    <t>14 ч. 8 мин. 13 сек.</t>
+    <t>14 ч. 08 мин. 13 сек.</t>
   </si>
   <si>
     <t>198</t>
@@ -1646,13 +1646,13 @@
     <t>Kenya</t>
   </si>
   <si>
-    <t>7 ч. 22 мин. 2 сек.</t>
+    <t>7 ч. 22 мин. 02 сек.</t>
   </si>
   <si>
     <t>Интегрируемый</t>
   </si>
   <si>
-    <t>7 ч. 3 мин. 23 сек.</t>
+    <t>7 ч. 03 мин. 23 сек.</t>
   </si>
   <si>
     <t>Shalyi</t>
@@ -1691,7 +1691,7 @@
     <t>моном</t>
   </si>
   <si>
-    <t>14 ч. 40 мин. 0 сек.</t>
+    <t>14 ч. 40 мин. 00 сек.</t>
   </si>
   <si>
     <t>211–212</t>
@@ -1715,7 +1715,7 @@
     <t>annafil</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 33 сек.</t>
+    <t>3 ч. 07 мин. 33 сек.</t>
   </si>
   <si>
     <t>1asd</t>
@@ -1727,13 +1727,13 @@
     <t>Турбозавр</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 47 сек.</t>
+    <t>8 ч. 05 мин. 47 сек.</t>
   </si>
   <si>
     <t>клавмен</t>
   </si>
   <si>
-    <t>15 ч. 1 мин. 49 сек.</t>
+    <t>15 ч. 01 мин. 49 сек.</t>
   </si>
   <si>
     <t>217–218</t>
@@ -1742,13 +1742,13 @@
     <t>Аэрограф</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 3 сек.</t>
+    <t>5 ч. 05 мин. 03 сек.</t>
   </si>
   <si>
     <t>Zoomskij</t>
   </si>
   <si>
-    <t>16 ч. 32 мин. 3 сек.</t>
+    <t>16 ч. 32 мин. 03 сек.</t>
   </si>
   <si>
     <t>219–220</t>
@@ -1799,7 +1799,7 @@
     <t>Sandi</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 13 сек.</t>
+    <t>4 ч. 03 мин. 13 сек.</t>
   </si>
   <si>
     <t>Кот_Черныш</t>
@@ -1835,7 +1835,7 @@
     <t>KyKyzya</t>
   </si>
   <si>
-    <t>26 ч. 38 мин. 5 сек.</t>
+    <t>26 ч. 38 мин. 05 сек.</t>
   </si>
   <si>
     <t>231–233</t>
@@ -1871,7 +1871,7 @@
     <t>iOlga</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 16 сек.</t>
+    <t>4 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>236–238</t>
@@ -1880,7 +1880,7 @@
     <t>Falster</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 16 сек.</t>
+    <t>4 ч. 05 мин. 16 сек.</t>
   </si>
   <si>
     <t>Paeonia</t>
@@ -1901,13 +1901,13 @@
     <t>suenot</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 9 сек.</t>
+    <t>4 ч. 09 мин. 09 сек.</t>
   </si>
   <si>
     <t>KOSTYA410</t>
   </si>
   <si>
-    <t>5 ч. 22 мин. 5 сек.</t>
+    <t>5 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>sharpei_j</t>
@@ -1919,7 +1919,7 @@
     <t>4u6uc</t>
   </si>
   <si>
-    <t>34 ч. 1 мин. 40 сек.</t>
+    <t>34 ч. 01 мин. 40 сек.</t>
   </si>
   <si>
     <t>243–246</t>
@@ -1961,7 +1961,7 @@
     <t>timelimit</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 48 сек.</t>
+    <t>12 ч. 04 мин. 48 сек.</t>
   </si>
   <si>
     <t>249–250</t>
@@ -1970,13 +1970,13 @@
     <t>noktdchd</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 16 сек.</t>
+    <t>4 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>alex_crazy</t>
   </si>
   <si>
-    <t>8 ч. 31 мин. 7 сек.</t>
+    <t>8 ч. 31 мин. 07 сек.</t>
   </si>
   <si>
     <t>251–254</t>
@@ -1985,7 +1985,7 @@
     <t>vIRwO</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 48 сек.</t>
+    <t>4 ч. 07 мин. 48 сек.</t>
   </si>
   <si>
     <t>Александр88</t>
@@ -1997,7 +1997,7 @@
     <t>xlsx</t>
   </si>
   <si>
-    <t>35 ч. 23 мин. 9 сек.</t>
+    <t>35 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>Алека</t>
@@ -2012,7 +2012,7 @@
     <t>Я_Олег</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 2 сек.</t>
+    <t>4 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>Tatsi_3006</t>
@@ -2057,7 +2057,7 @@
     <t>Бэтмен</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 46 сек.</t>
+    <t>8 ч. 05 мин. 46 сек.</t>
   </si>
   <si>
     <t>262</t>
@@ -2096,7 +2096,7 @@
     <t>spiderokk</t>
   </si>
   <si>
-    <t>7 ч. 11 мин. 2 сек.</t>
+    <t>7 ч. 11 мин. 02 сек.</t>
   </si>
   <si>
     <t>ВалераУлитка</t>
@@ -2132,7 +2132,7 @@
     <t>MD2044</t>
   </si>
   <si>
-    <t>11 ч. 7 мин. 9 сек.</t>
+    <t>11 ч. 07 мин. 09 сек.</t>
   </si>
   <si>
     <t>272–273</t>
@@ -2156,13 +2156,13 @@
     <t>ASplayer9119</t>
   </si>
   <si>
-    <t>3 ч. 31 мин. 2 сек.</t>
+    <t>3 ч. 31 мин. 02 сек.</t>
   </si>
   <si>
     <t>monya2205</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 45 сек.</t>
+    <t>5 ч. 08 мин. 45 сек.</t>
   </si>
   <si>
     <t>psst</t>
@@ -2183,7 +2183,7 @@
     <t>wakiko</t>
   </si>
   <si>
-    <t>3 ч. 22 мин. 5 сек.</t>
+    <t>3 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>Defaul</t>
@@ -2204,13 +2204,13 @@
     <t>eyflor</t>
   </si>
   <si>
-    <t>2 ч. 55 мин. 1 сек.</t>
+    <t>2 ч. 55 мин. 01 сек.</t>
   </si>
   <si>
     <t>__Anastasia__</t>
   </si>
   <si>
-    <t>10 ч. 0 мин. 11 сек.</t>
+    <t>10 ч. 00 мин. 11 сек.</t>
   </si>
   <si>
     <t>283–286</t>
@@ -2252,13 +2252,13 @@
     <t>непонятно</t>
   </si>
   <si>
-    <t>11 ч. 1 мин. 25 сек.</t>
+    <t>11 ч. 01 мин. 25 сек.</t>
   </si>
   <si>
     <t>Lelick</t>
   </si>
   <si>
-    <t>11 ч. 52 мин. 0 сек.</t>
+    <t>11 ч. 52 мин. 00 сек.</t>
   </si>
   <si>
     <t>290–291</t>
@@ -2267,7 +2267,7 @@
     <t>Гавик</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 9 сек.</t>
+    <t>3 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>Командир</t>
@@ -2315,7 +2315,7 @@
     <t>я_араб</t>
   </si>
   <si>
-    <t>146 ч. 3 мин. 19 сек.</t>
+    <t>146 ч. 03 мин. 19 сек.</t>
   </si>
   <si>
     <t>298–300</t>
@@ -2357,7 +2357,7 @@
     <t>a1987zz</t>
   </si>
   <si>
-    <t>4 ч. 52 мин. 6 сек.</t>
+    <t>4 ч. 52 мин. 06 сек.</t>
   </si>
   <si>
     <t>304–305</t>
@@ -2381,7 +2381,7 @@
     <t>200поСкоростной</t>
   </si>
   <si>
-    <t>2 ч. 38 мин. 8 сек.</t>
+    <t>2 ч. 38 мин. 08 сек.</t>
   </si>
   <si>
     <t>demigod1999</t>
@@ -2471,7 +2471,7 @@
     <t>Диктатор</t>
   </si>
   <si>
-    <t>7 ч. 8 мин. 16 сек.</t>
+    <t>7 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>совет-солдат</t>
@@ -2486,7 +2486,7 @@
     <t>чебупеля</t>
   </si>
   <si>
-    <t>6 ч. 2 мин. 2 сек.</t>
+    <t>6 ч. 02 мин. 02 сек.</t>
   </si>
   <si>
     <t>pitty</t>
@@ -2549,7 +2549,7 @@
     <t>fast_turtle</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 35 сек.</t>
+    <t>4 ч. 05 мин. 35 сек.</t>
   </si>
   <si>
     <t>sasha77</t>
@@ -2582,13 +2582,13 @@
     <t>kacegale</t>
   </si>
   <si>
-    <t>3 ч. 11 мин. 7 сек.</t>
+    <t>3 ч. 11 мин. 07 сек.</t>
   </si>
   <si>
     <t>Дмитрий123456</t>
   </si>
   <si>
-    <t>5 ч. 43 мин. 9 сек.</t>
+    <t>5 ч. 43 мин. 09 сек.</t>
   </si>
   <si>
     <t>337–341</t>
@@ -2621,7 +2621,7 @@
     <t>Игорка</t>
   </si>
   <si>
-    <t>15 ч. 10 мин. 3 сек.</t>
+    <t>15 ч. 10 мин. 03 сек.</t>
   </si>
   <si>
     <t>342–344</t>
@@ -2636,7 +2636,7 @@
     <t>chat</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 22 сек.</t>
+    <t>5 ч. 03 мин. 22 сек.</t>
   </si>
   <si>
     <t>newbie13</t>
@@ -2717,7 +2717,7 @@
     <t>kateruna</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 10 сек.</t>
+    <t>8 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>355</t>
@@ -2735,7 +2735,7 @@
     <t>ASAP_Roman</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 23 сек.</t>
+    <t>3 ч. 02 мин. 23 сек.</t>
   </si>
   <si>
     <t>rovno</t>
@@ -2768,7 +2768,7 @@
     <t>SpazZm</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 2 сек.</t>
+    <t>9 ч. 07 мин. 02 сек.</t>
   </si>
   <si>
     <t>Dervish</t>
@@ -2783,7 +2783,7 @@
     <t>niceflower</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 25 сек.</t>
+    <t>4 ч. 00 мин. 25 сек.</t>
   </si>
   <si>
     <t>nik2036</t>
@@ -2810,7 +2810,7 @@
     <t>olimo</t>
   </si>
   <si>
-    <t>15 ч. 1 мин. 34 сек.</t>
+    <t>15 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>368–369</t>
@@ -2852,13 +2852,13 @@
     <t>Yurilla</t>
   </si>
   <si>
-    <t>4 ч. 23 мин. 8 сек.</t>
+    <t>4 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>selsa</t>
   </si>
   <si>
-    <t>14 ч. 38 мин. 1 сек.</t>
+    <t>14 ч. 38 мин. 01 сек.</t>
   </si>
   <si>
     <t>374–375</t>
@@ -2900,7 +2900,7 @@
     <t>Genek</t>
   </si>
   <si>
-    <t>11 ч. 16 мин. 0 сек.</t>
+    <t>11 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>Pyccku</t>
@@ -2927,7 +2927,7 @@
     <t>Insane_Grinder</t>
   </si>
   <si>
-    <t>4 ч. 29 мин. 2 сек.</t>
+    <t>4 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>Smoke342</t>
@@ -2942,7 +2942,7 @@
     <t>Элена</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 51 сек.</t>
+    <t>4 ч. 09 мин. 51 сек.</t>
   </si>
   <si>
     <t>Marrog</t>
@@ -2975,7 +2975,7 @@
     <t>kisa86</t>
   </si>
   <si>
-    <t>4 ч. 59 мин. 7 сек.</t>
+    <t>4 ч. 59 мин. 07 сек.</t>
   </si>
   <si>
     <t>391–393</t>
@@ -2990,7 +2990,7 @@
     <t>Remergy</t>
   </si>
   <si>
-    <t>4 ч. 30 мин. 0 сек.</t>
+    <t>4 ч. 30 мин. 00 сек.</t>
   </si>
   <si>
     <t>Аники</t>
@@ -3020,7 +3020,7 @@
     <t>zolo305</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 21 сек.</t>
+    <t>3 ч. 04 мин. 21 сек.</t>
   </si>
   <si>
     <t>Стажер</t>
@@ -3050,7 +3050,7 @@
     <t>Мимо_проходил</t>
   </si>
   <si>
-    <t>7 ч. 15 мин. 0 сек.</t>
+    <t>7 ч. 15 мин. 00 сек.</t>
   </si>
   <si>
     <t>401–402</t>
@@ -3089,7 +3089,7 @@
     <t>m19ix1ex</t>
   </si>
   <si>
-    <t>5 ч. 26 мин. 3 сек.</t>
+    <t>5 ч. 26 мин. 03 сек.</t>
   </si>
   <si>
     <t>Мишенятко</t>
@@ -3104,7 +3104,7 @@
     <t>baffuta</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 13 сек.</t>
+    <t>5 ч. 08 мин. 13 сек.</t>
   </si>
   <si>
     <t>408–409</t>
@@ -3113,7 +3113,7 @@
     <t>Sunshine_k</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 15 сек.</t>
+    <t>5 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>GAS_BURF</t>
@@ -3128,13 +3128,13 @@
     <t>saull</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 14 сек.</t>
+    <t>5 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>Skao</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 57 сек.</t>
+    <t>13 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>412–413</t>
@@ -3212,7 +3212,7 @@
     <t>Sauvage</t>
   </si>
   <si>
-    <t>11 ч. 6 мин. 48 сек.</t>
+    <t>11 ч. 06 мин. 48 сек.</t>
   </si>
   <si>
     <t>422–423</t>
@@ -3221,13 +3221,13 @@
     <t>zvv</t>
   </si>
   <si>
-    <t>6 ч. 4 мин. 50 сек.</t>
+    <t>6 ч. 04 мин. 50 сек.</t>
   </si>
   <si>
     <t>Anatoly79</t>
   </si>
   <si>
-    <t>12 ч. 6 мин. 51 сек.</t>
+    <t>12 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>424–425</t>
@@ -3242,7 +3242,7 @@
     <t>DerBesondereEin</t>
   </si>
   <si>
-    <t>5 ч. 52 мин. 0 сек.</t>
+    <t>5 ч. 52 мин. 00 сек.</t>
   </si>
   <si>
     <t>426–428</t>
@@ -3272,7 +3272,7 @@
     <t>Fyurik</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 56 сек.</t>
+    <t>4 ч. 05 мин. 56 сек.</t>
   </si>
   <si>
     <t>gr01</t>
@@ -3296,7 +3296,7 @@
     <t>Escamillo</t>
   </si>
   <si>
-    <t>13 ч. 50 мин. 6 сек.</t>
+    <t>13 ч. 50 мин. 06 сек.</t>
   </si>
   <si>
     <t>xdg-</t>
@@ -3323,7 +3323,7 @@
     <t>aGm</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 33 сек.</t>
+    <t>3 ч. 05 мин. 33 сек.</t>
   </si>
   <si>
     <t>zar87</t>
@@ -3338,7 +3338,7 @@
     <t>Nastena_N</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 51 сек.</t>
+    <t>4 ч. 00 мин. 51 сек.</t>
   </si>
   <si>
     <t>irz</t>
@@ -3368,7 +3368,7 @@
     <t>Chernyshev</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 9 сек.</t>
+    <t>3 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>mishlen79</t>
@@ -3386,7 +3386,7 @@
     <t>bot1</t>
   </si>
   <si>
-    <t>12 ч. 21 мин. 7 сек.</t>
+    <t>12 ч. 21 мин. 07 сек.</t>
   </si>
   <si>
     <t>AndBabushkin</t>
@@ -3419,7 +3419,7 @@
     <t>denisdv</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 51 сек.</t>
+    <t>7 ч. 01 мин. 51 сек.</t>
   </si>
   <si>
     <t>452</t>
@@ -3443,7 +3443,7 @@
     <t>shicotus</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 38 сек.</t>
+    <t>7 ч. 01 мин. 38 сек.</t>
   </si>
   <si>
     <t>inobject</t>
@@ -3464,7 +3464,7 @@
     <t>anomura</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 4 сек.</t>
+    <t>6 ч. 00 мин. 04 сек.</t>
   </si>
   <si>
     <t>laKatalina_</t>
@@ -3485,7 +3485,7 @@
     <t>малюк</t>
   </si>
   <si>
-    <t>6 ч. 1 мин. 7 сек.</t>
+    <t>6 ч. 01 мин. 07 сек.</t>
   </si>
   <si>
     <t>tinto</t>
@@ -3533,7 +3533,7 @@
     <t>Геос</t>
   </si>
   <si>
-    <t>9 ч. 29 мин. 8 сек.</t>
+    <t>9 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>zilok5301</t>
@@ -3548,13 +3548,13 @@
     <t>karabaska</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 12 сек.</t>
+    <t>4 ч. 01 мин. 12 сек.</t>
   </si>
   <si>
     <t>grebenkov</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 38 сек.</t>
+    <t>4 ч. 04 мин. 38 сек.</t>
   </si>
   <si>
     <t>YANA123</t>
@@ -3578,7 +3578,7 @@
     <t>Lee11</t>
   </si>
   <si>
-    <t>8 ч. 1 мин. 43 сек.</t>
+    <t>8 ч. 01 мин. 43 сек.</t>
   </si>
   <si>
     <t>Rit</t>
@@ -3647,7 +3647,7 @@
     <t>vitalik_13</t>
   </si>
   <si>
-    <t>11 ч. 44 мин. 9 сек.</t>
+    <t>11 ч. 44 мин. 09 сек.</t>
   </si>
   <si>
     <t>ego_alter</t>
@@ -3662,7 +3662,7 @@
     <t>trat</t>
   </si>
   <si>
-    <t>6 ч. 45 мин. 2 сек.</t>
+    <t>6 ч. 45 мин. 02 сек.</t>
   </si>
   <si>
     <t>черепахаход</t>
@@ -3686,7 +3686,7 @@
     <t>AlmaKira</t>
   </si>
   <si>
-    <t>4 ч. 51 мин. 0 сек.</t>
+    <t>4 ч. 51 мин. 00 сек.</t>
   </si>
   <si>
     <t>489–490</t>
@@ -3695,7 +3695,7 @@
     <t>Кнопочник</t>
   </si>
   <si>
-    <t>6 ч. 4 мин. 34 сек.</t>
+    <t>6 ч. 04 мин. 34 сек.</t>
   </si>
   <si>
     <t>Lesyapr12</t>
@@ -3710,7 +3710,7 @@
     <t>MONZA</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 42 сек.</t>
+    <t>12 ч. 09 мин. 42 сек.</t>
   </si>
   <si>
     <t>stanislav030102</t>
@@ -3725,7 +3725,7 @@
     <t>msmarpl</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 55 сек.</t>
+    <t>11 ч. 04 мин. 55 сек.</t>
   </si>
   <si>
     <t>accept82</t>
@@ -3764,7 +3764,7 @@
     <t>NodeJS</t>
   </si>
   <si>
-    <t>6 ч. 49 мин. 8 сек.</t>
+    <t>6 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>499–500</t>
@@ -3773,13 +3773,13 @@
     <t>ivanova1789</t>
   </si>
   <si>
-    <t>5 ч. 41 мин. 6 сек.</t>
+    <t>5 ч. 41 мин. 06 сек.</t>
   </si>
   <si>
     <t>MaxWolf</t>
   </si>
   <si>
-    <t>7 ч. 3 мин. 54 сек.</t>
+    <t>7 ч. 03 мин. 54 сек.</t>
   </si>
   <si>
     <t>501</t>
@@ -3812,7 +3812,7 @@
     <t>Денис3аыпп</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 35 сек.</t>
+    <t>5 ч. 03 мин. 35 сек.</t>
   </si>
   <si>
     <t>p9gehka</t>
@@ -3827,7 +3827,7 @@
     <t>Auril</t>
   </si>
   <si>
-    <t>8 ч. 27 мин. 3 сек.</t>
+    <t>8 ч. 27 мин. 03 сек.</t>
   </si>
   <si>
     <t>507</t>
@@ -3845,7 +3845,7 @@
     <t>Tigerwood</t>
   </si>
   <si>
-    <t>6 ч. 54 мин. 2 сек.</t>
+    <t>6 ч. 54 мин. 02 сек.</t>
   </si>
   <si>
     <t>509</t>
@@ -3863,7 +3863,7 @@
     <t>judi</t>
   </si>
   <si>
-    <t>3 ч. 55 мин. 3 сек.</t>
+    <t>3 ч. 55 мин. 03 сек.</t>
   </si>
   <si>
     <t>zum_zum</t>
@@ -3878,7 +3878,7 @@
     <t>петрови4</t>
   </si>
   <si>
-    <t>5 ч. 18 мин. 1 сек.</t>
+    <t>5 ч. 18 мин. 01 сек.</t>
   </si>
   <si>
     <t>513</t>
@@ -3905,7 +3905,7 @@
     <t>Креслоноцец</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 49 сек.</t>
+    <t>6 ч. 08 мин. 49 сек.</t>
   </si>
   <si>
     <t>516–517</t>
@@ -3914,13 +3914,13 @@
     <t>Berg4ns</t>
   </si>
   <si>
-    <t>5 ч. 15 мин. 9 сек.</t>
+    <t>5 ч. 15 мин. 09 сек.</t>
   </si>
   <si>
     <t>Radimir</t>
   </si>
   <si>
-    <t>7 ч. 7 мин. 27 сек.</t>
+    <t>7 ч. 07 мин. 27 сек.</t>
   </si>
   <si>
     <t>518</t>
@@ -3938,7 +3938,7 @@
     <t>Sensei777</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 37 сек.</t>
+    <t>4 ч. 06 мин. 37 сек.</t>
   </si>
   <si>
     <t>520</t>
@@ -3956,19 +3956,19 @@
     <t>greenSnake</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 41 сек.</t>
+    <t>5 ч. 03 мин. 41 сек.</t>
   </si>
   <si>
     <t>mantilet</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 32 сек.</t>
+    <t>5 ч. 00 мин. 32 сек.</t>
   </si>
   <si>
     <t>МЕДВЕДКО15</t>
   </si>
   <si>
-    <t>4 ч. 24 мин. 2 сек.</t>
+    <t>4 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>524</t>
@@ -4037,13 +4037,13 @@
     <t>Castolo</t>
   </si>
   <si>
-    <t>5 ч. 27 мин. 6 сек.</t>
+    <t>5 ч. 27 мин. 06 сек.</t>
   </si>
   <si>
     <t>Таис</t>
   </si>
   <si>
-    <t>5 ч. 38 мин. 9 сек.</t>
+    <t>5 ч. 38 мин. 09 сек.</t>
   </si>
   <si>
     <t>533–534</t>
@@ -4058,7 +4058,7 @@
     <t>Спелый</t>
   </si>
   <si>
-    <t>6 ч. 1 мин. 49 сек.</t>
+    <t>6 ч. 01 мин. 49 сек.</t>
   </si>
   <si>
     <t>535</t>
@@ -4112,13 +4112,13 @@
     <t>Filosof03</t>
   </si>
   <si>
-    <t>7 ч. 20 мин. 9 сек.</t>
+    <t>7 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>Savitri</t>
   </si>
   <si>
-    <t>15 ч. 5 мин. 1 сек.</t>
+    <t>15 ч. 05 мин. 01 сек.</t>
   </si>
   <si>
     <t>542</t>
@@ -4127,7 +4127,7 @@
     <t>0001111</t>
   </si>
   <si>
-    <t>6 ч. 10 мин. 5 сек.</t>
+    <t>6 ч. 10 мин. 05 сек.</t>
   </si>
   <si>
     <t>543</t>
@@ -4163,7 +4163,7 @@
     <t>Irina2305</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 29 сек.</t>
+    <t>10 ч. 08 мин. 29 сек.</t>
   </si>
   <si>
     <t>547</t>
